--- a/CombinedComplementarity_Pattern/complementary/ComplementarityPatternClassification.xlsx
+++ b/CombinedComplementarity_Pattern/complementary/ComplementarityPatternClassification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2"/>
+    <workbookView xWindow="-31260" yWindow="700" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
   <sheets>
-    <sheet name="all_literal_mapping" sheetId="5" r:id="rId1"/>
+    <sheet name="validated_mapping" sheetId="5" r:id="rId1"/>
     <sheet name="specialCase" sheetId="6" r:id="rId2"/>
     <sheet name="Validated_complementaryPattern" sheetId="8" r:id="rId3"/>
     <sheet name="All_CP" sheetId="9" r:id="rId4"/>
@@ -8916,8 +8916,8 @@
   </sheetPr>
   <dimension ref="A1:IS776"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25662,8 +25662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="F440" sqref="F440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -34488,7 +34488,7 @@
   <dimension ref="A1:F1465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -63808,8 +63808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F440" sqref="F440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
